--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -485,25 +485,25 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D2" t="n">
-        <v>4631561151.493849</v>
+        <v>4208415172.897496</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001938892638358515</v>
+        <v>0.001351815838892293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005655522866528816</v>
+        <v>0.2956481713146568</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.535151586294813e-06</v>
+        <v>0.712339023653526</v>
       </c>
       <c r="I2" t="n">
-        <v>9.19619345664978</v>
+        <v>15.48375812931438</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>450</v>
+        <v>555</v>
       </c>
       <c r="D3" t="n">
-        <v>3215255551.869132</v>
+        <v>3847586353.51015</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004034955675476349</v>
+        <v>0.004891641142873002</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008146755235294638</v>
+        <v>0.3778372507932758</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.0923699493207e-06</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>9.204494023323059</v>
+        <v>18.09154897214627</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +547,25 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D4" t="n">
-        <v>1914563032.738912</v>
+        <v>9002689325.008356</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001761175115914675</v>
+        <v>0.002660625459979935</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001368139860223241</v>
+        <v>0.1649722739930961</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>8.55196223458981e-06</v>
+        <v>0.2549746578894508</v>
       </c>
       <c r="I4" t="n">
-        <v>9.175047683715821</v>
+        <v>9.661634492220943</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +578,25 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>450</v>
+        <v>554</v>
       </c>
       <c r="D5" t="n">
-        <v>4494078122.686357</v>
+        <v>8211276504.428463</v>
       </c>
       <c r="E5" t="n">
-        <v>0.003808431903850573</v>
+        <v>0.004016583157079982</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005828536862270313</v>
+        <v>0.1767255138975502</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>3.643299093772253e-06</v>
+        <v>0.296110882891571</v>
       </c>
       <c r="I5" t="n">
-        <v>9.18720452785492</v>
+        <v>18.05895158661087</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +609,25 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D6" t="n">
-        <v>649032361.169804</v>
+        <v>5993485037.023369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00150975763253524</v>
+        <v>0.004860331894281408</v>
       </c>
       <c r="F6" t="n">
-        <v>0.004035838822087175</v>
+        <v>0.204097469576319</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.522720241901964e-05</v>
+        <v>0.3919124607291153</v>
       </c>
       <c r="I6" t="n">
-        <v>9.197983169555664</v>
+        <v>15.22297904503119</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D7" t="n">
-        <v>1439398421.84168</v>
+        <v>7748477301.455028</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001124963951718809</v>
+        <v>0.00476053254405719</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001819781069822591</v>
+        <v>0.1517854494816869</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.137507899360878e-05</v>
+        <v>0.2088209007489004</v>
       </c>
       <c r="I7" t="n">
-        <v>9.201343250274657</v>
+        <v>14.63622610539401</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +671,25 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>450</v>
+        <v>584</v>
       </c>
       <c r="D8" t="n">
-        <v>2429573859.261202</v>
+        <v>8341720245.356235</v>
       </c>
       <c r="E8" t="n">
-        <v>0.004399902958873724</v>
+        <v>0.002545926378417389</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001078127339086748</v>
+        <v>0.1833822898642021</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>6.7391533248978e-06</v>
+        <v>0.3194095338319915</v>
       </c>
       <c r="I8" t="n">
-        <v>9.185480546951293</v>
+        <v>10.2583505837183</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +702,25 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D9" t="n">
-        <v>128668985.2499559</v>
+        <v>6513633067.042584</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003685636824709343</v>
+        <v>0.004667730463380518</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02035758652259129</v>
+        <v>0.1785499962969278</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001272511065500186</v>
+        <v>0.3024965534899191</v>
       </c>
       <c r="I9" t="n">
-        <v>9.211047911643982</v>
+        <v>14.47323917771702</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +733,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D10" t="n">
-        <v>678282383.9485012</v>
+        <v>8145385872.202086</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003095855959157138</v>
+        <v>0.001195970560627643</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003861798657885943</v>
+        <v>0.1778335235097211</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.41393129752402e-05</v>
+        <v>0.2999889057245347</v>
       </c>
       <c r="I10" t="n">
-        <v>9.182040667533874</v>
+        <v>18.02635420107547</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>450</v>
+        <v>411</v>
       </c>
       <c r="D11" t="n">
-        <v>1824765719.917668</v>
+        <v>10914971682.32503</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000812304082011366</v>
+        <v>0.002341589887010742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00143546646641202</v>
+        <v>0.09863234842315935</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.972807069426789e-06</v>
+        <v>0.02278556560055543</v>
       </c>
       <c r="I11" t="n">
-        <v>9.180764055252075</v>
+        <v>13.39752545504886</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +795,25 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="D12" t="n">
-        <v>3712068996.921957</v>
+        <v>6626372616.497289</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001846419463877546</v>
+        <v>0.001210634708075548</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0007056415174857998</v>
+        <v>0.1913240974169897</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>4.410820694685796e-06</v>
+        <v>0.3472057827872433</v>
       </c>
       <c r="I12" t="n">
-        <v>9.225705313682557</v>
+        <v>15.77713459913297</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +826,25 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>450</v>
+        <v>473</v>
       </c>
       <c r="D13" t="n">
-        <v>2641715195.622495</v>
+        <v>4650085393.887639</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001771264182260648</v>
+        <v>0.003799180704273011</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009915489770965891</v>
+        <v>0.2664405844306819</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.197969705007019e-06</v>
+        <v>0.610112754506</v>
       </c>
       <c r="I13" t="n">
-        <v>9.202239394187927</v>
+        <v>15.41856335824358</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +857,25 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D14" t="n">
-        <v>4421137649.298481</v>
+        <v>10518294500.14806</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003452755306270073</v>
+        <v>0.002083211896376473</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0005924696781190762</v>
+        <v>0.1317378316399578</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.703406690882588e-06</v>
+        <v>0.1386544338854649</v>
       </c>
       <c r="I14" t="n">
-        <v>9.17909562587738</v>
+        <v>17.24401694822591</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +888,25 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D15" t="n">
-        <v>472000757.0176398</v>
+        <v>10532355692.60191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003634701069172503</v>
+        <v>0.003835257473186202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005549546184100944</v>
+        <v>0.1395203345660063</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3.468907731246076e-05</v>
+        <v>0.1658931182012904</v>
       </c>
       <c r="I15" t="n">
-        <v>9.228898358345031</v>
+        <v>9.385896180903556</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +919,25 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>450</v>
+        <v>597</v>
       </c>
       <c r="D16" t="n">
-        <v>1590104679.135227</v>
+        <v>11470149512.46519</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001000698564808018</v>
+        <v>0.001409256946904231</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001647306642368064</v>
+        <v>0.1363343893905276</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.029697664975708e-05</v>
+        <v>0.1547423411688872</v>
       </c>
       <c r="I16" t="n">
-        <v>9.223891711235046</v>
+        <v>8.628807122556694</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +950,25 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D17" t="n">
-        <v>2923716675.120843</v>
+        <v>4939603862.894446</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00443580115018765</v>
+        <v>0.002632533958853625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0008959110238996518</v>
+        <v>0.2349155523819778</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.600156434805083e-06</v>
+        <v>0.4997754498906925</v>
       </c>
       <c r="I17" t="n">
-        <v>9.235728812217712</v>
+        <v>14.44064179218162</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +981,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="D18" t="n">
-        <v>3159157060.400885</v>
+        <v>6261565763.732156</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00474565561140208</v>
+        <v>0.002530237705619667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008291420622397323</v>
+        <v>0.1949409757971543</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>5.182797321778996e-06</v>
+        <v>0.3598648218319046</v>
       </c>
       <c r="I18" t="n">
-        <v>9.239843392372132</v>
+        <v>15.19038165949579</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1012,25 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="D19" t="n">
-        <v>2651005561.576064</v>
+        <v>7600780759.800567</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002338189809745013</v>
+        <v>0.003725842327384357</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0009880741247644657</v>
+        <v>0.1729998300904159</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>6.176249114313721e-06</v>
+        <v>0.2830710259140108</v>
       </c>
       <c r="I19" t="n">
-        <v>9.157808995246887</v>
+        <v>16.36388753877014</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1043,25 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D20" t="n">
-        <v>4952709980.820808</v>
+        <v>5020503330.770469</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001143123273030613</v>
+        <v>0.002579420329773804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0005288801504920525</v>
+        <v>0.305217036827429</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.305921569227719e-06</v>
+        <v>0.7458299595953041</v>
       </c>
       <c r="I20" t="n">
-        <v>9.208430314064026</v>
+        <v>10.28820221394697</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1074,25 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>450</v>
+        <v>540</v>
       </c>
       <c r="D21" t="n">
-        <v>3792716796.773875</v>
+        <v>4216177937.285532</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0006432460950695578</v>
+        <v>0.004981914292164171</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0006906368548867348</v>
+        <v>0.3354864574123423</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>4.317029619942146e-06</v>
+        <v>0.8517726363369676</v>
       </c>
       <c r="I21" t="n">
-        <v>9.192404913902283</v>
+        <v>17.60258818911529</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1105,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D22" t="n">
-        <v>128519285.7007198</v>
+        <v>8651594788.317072</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004340489530750181</v>
+        <v>0.003435409090929079</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02038129908455699</v>
+        <v>0.1659145805046681</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001273993289213652</v>
+        <v>0.2582727214869019</v>
       </c>
       <c r="I22" t="n">
-        <v>450</v>
+        <v>17.86336727339848</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1136,25 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D23" t="n">
-        <v>3328936270.761126</v>
+        <v>4582068961.325646</v>
       </c>
       <c r="E23" t="n">
-        <v>0.001084603850167031</v>
+        <v>0.003950282358147591</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0007868549551419032</v>
+        <v>0.2732539450121593</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>4.918469270660245e-06</v>
+        <v>0.6339594500706855</v>
       </c>
       <c r="I23" t="n">
-        <v>450</v>
+        <v>15.58155028592057</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1167,25 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="D24" t="n">
-        <v>381062351.8244779</v>
+        <v>9122484009.56872</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000841316538259083</v>
+        <v>0.002757449512240559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.006873914432792153</v>
+        <v>0.1507461946282999</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>4.296743216256285e-05</v>
+        <v>0.2051835189009154</v>
       </c>
       <c r="I24" t="n">
-        <v>450</v>
+        <v>17.11362740608431</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1198,25 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="D25" t="n">
-        <v>4270985989.805146</v>
+        <v>9736854856.720762</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0009375163623674614</v>
+        <v>0.003374091722585616</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006132986636464016</v>
+        <v>0.1358541304625648</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>3.833604416124976e-06</v>
+        <v>0.1530614396063769</v>
       </c>
       <c r="I25" t="n">
-        <v>450</v>
+        <v>16.46167969537634</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1229,25 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D26" t="n">
-        <v>1992078431.92715</v>
+        <v>10501675909.14066</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0009962347500754025</v>
+        <v>0.001619619687924144</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001314903046997996</v>
+        <v>0.1042600275873106</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>8.219189811660828e-06</v>
+        <v>0.04248238777199222</v>
       </c>
       <c r="I26" t="n">
-        <v>450</v>
+        <v>13.62570715379665</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1260,25 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>450</v>
+        <v>559</v>
       </c>
       <c r="D27" t="n">
-        <v>4193882394.649139</v>
+        <v>8554761355.629659</v>
       </c>
       <c r="E27" t="n">
-        <v>0.003494035630699183</v>
+        <v>0.001976772246546785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006245740231872045</v>
+        <v>0.1711607079531708</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.904084380767359e-06</v>
+        <v>0.2766341163759505</v>
       </c>
       <c r="I27" t="n">
-        <v>450</v>
+        <v>18.22193851428787</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1291,25 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D28" t="n">
-        <v>2722322212.960444</v>
+        <v>6479788774.537223</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001329494710253971</v>
+        <v>0.004708951780596967</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0009621895554940542</v>
+        <v>0.1778656126151754</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>6.014449969873135e-06</v>
+        <v>0.3001012172805666</v>
       </c>
       <c r="I28" t="n">
-        <v>450</v>
+        <v>14.34284963557542</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="D29" t="n">
-        <v>703231843.1428608</v>
+        <v>8620744440.436335</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002081391905835109</v>
+        <v>0.003648709149239378</v>
       </c>
       <c r="F29" t="n">
-        <v>0.003724788667551668</v>
+        <v>0.1583044480008882</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.328289156894549e-05</v>
+        <v>0.2316373319673873</v>
       </c>
       <c r="I29" t="n">
-        <v>450</v>
+        <v>16.98323786394272</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1353,25 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>450</v>
+        <v>588</v>
       </c>
       <c r="D30" t="n">
-        <v>2651743904.544246</v>
+        <v>4920412399.54464</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004898620322817088</v>
+        <v>0.003692672530015469</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0009877990086113511</v>
+        <v>0.3130228108811648</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>6.174529419551537e-06</v>
+        <v>0.7731500926310044</v>
       </c>
       <c r="I30" t="n">
-        <v>450</v>
+        <v>10.67958407096143</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1384,25 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>450</v>
+        <v>562</v>
       </c>
       <c r="D31" t="n">
-        <v>4401565284.951936</v>
+        <v>8596647988.812019</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003326939142700229</v>
+        <v>0.004953000027454639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0005951042028060259</v>
+        <v>0.1712408350226552</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>3.71987456546466e-06</v>
+        <v>0.2769145603374341</v>
       </c>
       <c r="I31" t="n">
-        <v>450</v>
+        <v>8.942797824563717</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1415,25 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D32" t="n">
-        <v>1638027954.409359</v>
+        <v>6509438912.401661</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001537645572784908</v>
+        <v>0.002302539363220608</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001599111903401246</v>
+        <v>0.1802746343873502</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>9.995721201002818e-06</v>
+        <v>0.3085327699809954</v>
       </c>
       <c r="I32" t="n">
-        <v>450</v>
+        <v>14.60362871985861</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1446,25 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="D33" t="n">
-        <v>335125820.7473602</v>
+        <v>6050313971.738635</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0005005090786617887</v>
+        <v>0.003042729667140085</v>
       </c>
       <c r="F33" t="n">
-        <v>0.007816139007607735</v>
+        <v>0.1813995794477113</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>4.885708512465876e-05</v>
+        <v>0.3124700667174042</v>
       </c>
       <c r="I33" t="n">
-        <v>450</v>
+        <v>13.65830453933205</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1477,25 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>450</v>
+        <v>537</v>
       </c>
       <c r="D34" t="n">
-        <v>2512925982.691546</v>
+        <v>9144285054.305115</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00422366396888548</v>
+        <v>0.00168172816104123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0010423665551798</v>
+        <v>0.1538242106022022</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>6.515619984233605e-06</v>
+        <v>0.2159565447807479</v>
       </c>
       <c r="I34" t="n">
-        <v>450</v>
+        <v>17.5047960325091</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +1508,25 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="D35" t="n">
-        <v>463109970.3158004</v>
+        <v>7902379013.024247</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0008675228470349849</v>
+        <v>0.002295289182122432</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005656086389618875</v>
+        <v>0.1571160859221864</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>3.535503833044185e-05</v>
+        <v>0.227478076285476</v>
       </c>
       <c r="I35" t="n">
-        <v>450</v>
+        <v>15.45116074377898</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +1539,25 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>450</v>
+        <v>590</v>
       </c>
       <c r="D36" t="n">
-        <v>4592921599.538335</v>
+        <v>7313311054.437016</v>
       </c>
       <c r="E36" t="n">
-        <v>0.002421597028799308</v>
+        <v>0.0016731837889433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0005703101921581445</v>
+        <v>0.2113187978053217</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.564892279757333e-06</v>
+        <v>0.4171870390800467</v>
       </c>
       <c r="I36" t="n">
-        <v>450</v>
+        <v>9.302423980500965</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +1570,25 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D37" t="n">
-        <v>1470009023.493147</v>
+        <v>4862432429.83277</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003286525383607157</v>
+        <v>0.003464404985076307</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001781887021193657</v>
+        <v>0.2472630781712168</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.113821105180532e-05</v>
+        <v>0.5429916696917645</v>
       </c>
       <c r="I37" t="n">
-        <v>450</v>
+        <v>14.962199960748</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +1601,25 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D38" t="n">
-        <v>3788004136.683301</v>
+        <v>11629453858.84148</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001367976052532208</v>
+        <v>0.001880144056847697</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000691496076953465</v>
+        <v>0.09212216867651993</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>4.322400441215201e-06</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>450</v>
+        <v>13.33233068397806</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +1632,25 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D39" t="n">
-        <v>1208119670.546403</v>
+        <v>4244633827.702881</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0005897059007540051</v>
+        <v>0.003428804882655717</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002168154417033301</v>
+        <v>0.2746122745364862</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.355268948176275e-05</v>
+        <v>0.6387135901540988</v>
       </c>
       <c r="I39" t="n">
-        <v>450</v>
+        <v>14.50583656325242</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +1663,25 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>450</v>
+        <v>532</v>
       </c>
       <c r="D40" t="n">
-        <v>4977344800.472629</v>
+        <v>7690164497.159497</v>
       </c>
       <c r="E40" t="n">
-        <v>0.004677941756631887</v>
+        <v>0.003944419583593229</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0005262625164628485</v>
+        <v>0.1812074995944132</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>3.289559274690026e-06</v>
+        <v>0.3117977891047732</v>
       </c>
       <c r="I40" t="n">
-        <v>450</v>
+        <v>17.3418091048321</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +1694,25 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>450</v>
+        <v>489</v>
       </c>
       <c r="D41" t="n">
-        <v>1741391679.735254</v>
+        <v>10204340822.60715</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001301468293710195</v>
+        <v>0.001532106934649001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001504193473807242</v>
+        <v>0.1255232192129724</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>9.402405525570309e-06</v>
+        <v>0.1169033510201724</v>
       </c>
       <c r="I41" t="n">
-        <v>450</v>
+        <v>15.94012152680996</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +1725,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="D42" t="n">
-        <v>4012889470.161499</v>
+        <v>4568390789.405225</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0007232069026177758</v>
+        <v>0.001144279356828981</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0006527441185402455</v>
+        <v>0.2666182483391658</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>4.080169880947648e-06</v>
+        <v>0.610734576452422</v>
       </c>
       <c r="I42" t="n">
-        <v>450</v>
+        <v>15.15778427396039</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +1756,25 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>450</v>
+        <v>487</v>
       </c>
       <c r="D43" t="n">
-        <v>1659278619.147779</v>
+        <v>8822803964.545301</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001180145356046854</v>
+        <v>0.004111428154496694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.001578631804069978</v>
+        <v>0.1445847527754452</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>9.867704291961752e-06</v>
+        <v>0.1836185325263534</v>
       </c>
       <c r="I43" t="n">
-        <v>450</v>
+        <v>15.87492675573916</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +1787,25 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D44" t="n">
-        <v>3462762376.054428</v>
+        <v>9561649681.657576</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0006504033577731836</v>
+        <v>0.001635809515497397</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0007564452063224186</v>
+        <v>0.1575198109264864</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>4.728384155074797e-06</v>
+        <v>0.228891109861824</v>
       </c>
       <c r="I44" t="n">
-        <v>450</v>
+        <v>8.589046504851934</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +1818,25 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>450</v>
+        <v>598</v>
       </c>
       <c r="D45" t="n">
-        <v>4748089150.962017</v>
+        <v>4208424482.847162</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00101477585910925</v>
+        <v>0.001034802239271949</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0005516724553222178</v>
+        <v>0.3722046638556463</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.448391601578816e-06</v>
+        <v>0.9802860006692686</v>
       </c>
       <c r="I45" t="n">
-        <v>450</v>
+        <v>10.27762788120581</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +1849,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="D46" t="n">
-        <v>3620875686.984382</v>
+        <v>6699035557.624802</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001103250198622601</v>
+        <v>0.002323942061119299</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0007234134022926201</v>
+        <v>0.1603141065250261</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>4.521909109053468e-06</v>
+        <v>0.238671117195836</v>
       </c>
       <c r="I46" t="n">
-        <v>450</v>
+        <v>13.36492806951346</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +1880,25 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>450</v>
+        <v>475</v>
       </c>
       <c r="D47" t="n">
-        <v>253949194.421731</v>
+        <v>11027100355.36336</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004984447528964988</v>
+        <v>0.004545676530028684</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01031462220608585</v>
+        <v>0.1128320419605904</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>6.447459220734513e-05</v>
+        <v>0.07248435445073051</v>
       </c>
       <c r="I47" t="n">
-        <v>450</v>
+        <v>15.48375812931438</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +1911,25 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>450</v>
+        <v>585</v>
       </c>
       <c r="D48" t="n">
-        <v>1710334872.429317</v>
+        <v>5080103340.666799</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001695047642757514</v>
+        <v>0.004913119409870457</v>
       </c>
       <c r="F48" t="n">
-        <v>0.001531507099705851</v>
+        <v>0.3016362162819446</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>9.573137410493607e-06</v>
+        <v>0.7332971226202472</v>
       </c>
       <c r="I48" t="n">
-        <v>450</v>
+        <v>10.1368087015523</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +1942,25 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D49" t="n">
-        <v>2534992985.760207</v>
+        <v>9884577102.652449</v>
       </c>
       <c r="E49" t="n">
-        <v>0.004970094567237064</v>
+        <v>0.003272627013291664</v>
       </c>
       <c r="F49" t="n">
-        <v>0.001033292799906696</v>
+        <v>0.1165989792007113</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>6.458901797242964e-06</v>
+        <v>0.08566859804127896</v>
       </c>
       <c r="I49" t="n">
-        <v>450</v>
+        <v>14.34284963557542</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +1973,25 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>450</v>
+        <v>529</v>
       </c>
       <c r="D50" t="n">
-        <v>359280883.8736283</v>
+        <v>5848323406.684436</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004117087719275794</v>
+        <v>0.004131512628833012</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007290646726758029</v>
+        <v>0.2369324015864513</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>4.557234043513422e-05</v>
+        <v>0.5068344024301648</v>
       </c>
       <c r="I50" t="n">
-        <v>450</v>
+        <v>17.24401694822591</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2004,25 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="D51" t="n">
-        <v>4219535299.831759</v>
+        <v>8013263003.258731</v>
       </c>
       <c r="E51" t="n">
-        <v>0.003828359196453526</v>
+        <v>0.002903440489956149</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0006207768898400826</v>
+        <v>0.1559226284588301</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>3.880349277413971e-06</v>
+        <v>0.2233009868069844</v>
       </c>
       <c r="I51" t="n">
-        <v>450</v>
+        <v>15.54895290038518</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2035,25 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="D52" t="n">
-        <v>954254552.2521319</v>
+        <v>9575615379.172396</v>
       </c>
       <c r="E52" t="n">
-        <v>0.001412328568693233</v>
+        <v>0.0032647394106087</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002744959396649447</v>
+        <v>0.146348155654631</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.715817934856316e-05</v>
+        <v>0.189790425399916</v>
       </c>
       <c r="I52" t="n">
-        <v>450</v>
+        <v>17.4396012614383</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2066,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="D53" t="n">
-        <v>2291055280.461979</v>
+        <v>4672903470.277645</v>
       </c>
       <c r="E53" t="n">
-        <v>0.004736402605423769</v>
+        <v>0.001614771459233107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.001143311565782827</v>
+        <v>0.2550496618602709</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>7.146606584029404e-06</v>
+        <v>0.5702446366382983</v>
       </c>
       <c r="I53" t="n">
-        <v>450</v>
+        <v>14.8318104186064</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2097,25 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>450</v>
+        <v>553</v>
       </c>
       <c r="D54" t="n">
-        <v>3365275118.556035</v>
+        <v>5053824318.380787</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001346257052656834</v>
+        <v>0.004702064893980365</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0007783583533948697</v>
+        <v>0.2866191182648979</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>4.865358752228947e-06</v>
+        <v>0.6807374260659362</v>
       </c>
       <c r="I54" t="n">
-        <v>450</v>
+        <v>18.02635420107547</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2128,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>450</v>
+        <v>567</v>
       </c>
       <c r="D55" t="n">
-        <v>3439468185.650774</v>
+        <v>10945792854.16845</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00430650422421788</v>
+        <v>0.001483566800546472</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007615683177207207</v>
+        <v>0.135686299730622</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>4.760407675824151e-06</v>
+        <v>0.1524740336819174</v>
       </c>
       <c r="I55" t="n">
-        <v>450</v>
+        <v>9.771361283570119</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D56" t="n">
-        <v>3345305167.650477</v>
+        <v>4545791275.60815</v>
       </c>
       <c r="E56" t="n">
-        <v>0.002130840779414419</v>
+        <v>0.001146718870240128</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0007830047988834715</v>
+        <v>0.3376667442335763</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>4.894402731941021e-06</v>
+        <v>0.8594036189406199</v>
       </c>
       <c r="I56" t="n">
-        <v>450</v>
+        <v>10.70635061227914</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D57" t="n">
-        <v>2596785918.423921</v>
+        <v>7168903783.163523</v>
       </c>
       <c r="E57" t="n">
-        <v>0.004455317385926043</v>
+        <v>0.001892700453050512</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001008704638074208</v>
+        <v>0.1523643869464784</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>6.305206230347404e-06</v>
+        <v>0.2108471762276128</v>
       </c>
       <c r="I57" t="n">
-        <v>450</v>
+        <v>13.59310976826125</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +2221,25 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D58" t="n">
-        <v>1716606899.486934</v>
+        <v>4308923731.645777</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003302790666920774</v>
+        <v>0.003599858423189042</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001525911378302681</v>
+        <v>0.2644360218380559</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>9.538159701337921e-06</v>
+        <v>0.6030968049881276</v>
       </c>
       <c r="I58" t="n">
-        <v>450</v>
+        <v>14.17986270789843</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +2252,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D59" t="n">
-        <v>742572680.1132398</v>
+        <v>11852969650.64891</v>
       </c>
       <c r="E59" t="n">
-        <v>0.004950081361062611</v>
+        <v>0.002381176626755057</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00352745269271225</v>
+        <v>0.1149148981348679</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>2.204938478106688e-05</v>
+        <v>0.07977433074055873</v>
       </c>
       <c r="I59" t="n">
-        <v>450</v>
+        <v>16.95064047840732</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +2283,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>450</v>
+        <v>586</v>
       </c>
       <c r="D60" t="n">
-        <v>136991014.4672385</v>
+        <v>10375641406.14012</v>
       </c>
       <c r="E60" t="n">
-        <v>0.002288326169720766</v>
+        <v>0.004383659442112248</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01912088913412952</v>
+        <v>0.1479390506973031</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.0001195207643026879</v>
+        <v>0.1953585425286505</v>
       </c>
       <c r="I60" t="n">
-        <v>450</v>
+        <v>11.07547332915393</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +2314,25 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>450</v>
+        <v>404</v>
       </c>
       <c r="D61" t="n">
-        <v>4979676526.003522</v>
+        <v>10040841443.77326</v>
       </c>
       <c r="E61" t="n">
-        <v>0.004742895865197575</v>
+        <v>0.00241419510991461</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0005260160948852258</v>
+        <v>0.105392916114242</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>3.288018943846019e-06</v>
+        <v>0.04644748656390171</v>
       </c>
       <c r="I61" t="n">
-        <v>450</v>
+        <v>13.16934375630107</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +2345,25 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>450</v>
+        <v>575</v>
       </c>
       <c r="D62" t="n">
-        <v>1054909517.324069</v>
+        <v>4858292554.590199</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003188844578732259</v>
+        <v>0.003758092146377222</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002483047083170188</v>
+        <v>0.3100161698942902</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.552101908536961e-05</v>
+        <v>0.7626268785094412</v>
       </c>
       <c r="I62" t="n">
-        <v>450</v>
+        <v>10.95402053136623</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +2376,25 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>450</v>
+        <v>561</v>
       </c>
       <c r="D63" t="n">
-        <v>2775505419.79611</v>
+        <v>6578417399.059291</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00336570255081632</v>
+        <v>0.001541526426544644</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0009437524356167253</v>
+        <v>0.2233786184212231</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>5.899203307240417e-06</v>
+        <v>0.4593962935812604</v>
       </c>
       <c r="I63" t="n">
-        <v>450</v>
+        <v>18.28713328535866</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +2407,25 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="D64" t="n">
-        <v>2396206003.306677</v>
+        <v>4490457783.846795</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00331276669887613</v>
+        <v>0.001804699437831559</v>
       </c>
       <c r="F64" t="n">
-        <v>0.001093140571547412</v>
+        <v>0.3044949191858721</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>6.832997968092223e-06</v>
+        <v>0.7433025548947647</v>
       </c>
       <c r="I64" t="n">
-        <v>450</v>
+        <v>17.01583524947812</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +2438,25 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D65" t="n">
-        <v>1820272257.570522</v>
+        <v>10319428978.69279</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003427462180662559</v>
+        <v>0.00233644233676065</v>
       </c>
       <c r="F65" t="n">
-        <v>0.001439010010236624</v>
+        <v>0.1170160473504188</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>8.994957036579768e-06</v>
+        <v>0.08712833249637883</v>
       </c>
       <c r="I65" t="n">
-        <v>450</v>
+        <v>15.0273947318188</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +2469,25 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="D66" t="n">
-        <v>3590032980.804874</v>
+        <v>11329777236.59857</v>
       </c>
       <c r="E66" t="n">
-        <v>0.00443694832660471</v>
+        <v>0.001461693853076115</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0007296283945037019</v>
+        <v>0.1086617392637815</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>4.560757753276704e-06</v>
+        <v>0.05788833569696802</v>
       </c>
       <c r="I66" t="n">
-        <v>450</v>
+        <v>15.32077120163738</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +2500,25 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="D67" t="n">
-        <v>1500136043.622596</v>
+        <v>7187676741.986292</v>
       </c>
       <c r="E67" t="n">
-        <v>0.001518861118453455</v>
+        <v>0.004617733709396809</v>
       </c>
       <c r="F67" t="n">
-        <v>0.001746101636005345</v>
+        <v>0.1672724098701951</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>1.091452393356672e-05</v>
+        <v>0.2630251110193948</v>
       </c>
       <c r="I67" t="n">
-        <v>450</v>
+        <v>14.962199960748</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D68" t="n">
-        <v>4145381257.923578</v>
+        <v>8404460215.687317</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003089037554167409</v>
+        <v>0.004903775497223803</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0006318815657771495</v>
+        <v>0.1390033279971283</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>3.949762333785019e-06</v>
+        <v>0.1640836002540835</v>
       </c>
       <c r="I68" t="n">
-        <v>450</v>
+        <v>14.53843394878782</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +2562,25 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>450</v>
+        <v>544</v>
       </c>
       <c r="D69" t="n">
-        <v>3516472082.361291</v>
+        <v>6150706997.675358</v>
       </c>
       <c r="E69" t="n">
-        <v>0.002974308754870507</v>
+        <v>0.001009454970858385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0007448914533230404</v>
+        <v>0.2316722550006942</v>
       </c>
       <c r="G69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>4.656164009904595e-06</v>
+        <v>0.4884239406974951</v>
       </c>
       <c r="I69" t="n">
-        <v>450</v>
+        <v>17.73297773125689</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +2593,25 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="D70" t="n">
-        <v>4332103328.278568</v>
+        <v>5908588637.9681</v>
       </c>
       <c r="E70" t="n">
-        <v>0.001063109582620098</v>
+        <v>0.002152856045830613</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0006046462426003254</v>
+        <v>0.2247627667741472</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>3.779519903148547e-06</v>
+        <v>0.4642407993128778</v>
       </c>
       <c r="I70" t="n">
-        <v>450</v>
+        <v>16.52687446644714</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +2624,25 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="D71" t="n">
-        <v>504297073.4791481</v>
+        <v>9574004741.944174</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004812645225515649</v>
+        <v>0.004135454195375603</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00519414079072245</v>
+        <v>0.1140886869644679</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>3.246751094303528e-05</v>
+        <v>0.07688259970459475</v>
       </c>
       <c r="I71" t="n">
-        <v>450</v>
+        <v>13.59310976826125</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +2655,25 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="D72" t="n">
-        <v>4630688955.057376</v>
+        <v>11039988348.55899</v>
       </c>
       <c r="E72" t="n">
-        <v>0.002809482020246182</v>
+        <v>0.00148032754405016</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0005656588091798415</v>
+        <v>0.110802212047594</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>3.535817436807746e-06</v>
+        <v>0.06537996955806674</v>
       </c>
       <c r="I72" t="n">
-        <v>450</v>
+        <v>15.22297904503119</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +2686,25 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D73" t="n">
-        <v>2660087432.532396</v>
+        <v>8819367171.691917</v>
       </c>
       <c r="E73" t="n">
-        <v>0.002224968725751194</v>
+        <v>0.004150488471087899</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0009847007162115523</v>
+        <v>0.1511751902426151</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>6.155162627920693e-06</v>
+        <v>0.206684999365779</v>
       </c>
       <c r="I73" t="n">
-        <v>450</v>
+        <v>16.59206923751793</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +2717,25 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74" t="n">
-        <v>1464896044.314089</v>
+        <v>10868888667.89724</v>
       </c>
       <c r="E74" t="n">
-        <v>0.003468514637626379</v>
+        <v>0.001253580176352478</v>
       </c>
       <c r="F74" t="n">
-        <v>0.001788106405343241</v>
+        <v>0.1091724928147197</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1.117708714913719e-05</v>
+        <v>0.05967596814238973</v>
       </c>
       <c r="I74" t="n">
-        <v>450</v>
+        <v>14.76661564753561</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +2748,25 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="D75" t="n">
-        <v>1176742228.621739</v>
+        <v>4091013536.639794</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000635704185960415</v>
+        <v>0.002257239628741936</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002225967536720395</v>
+        <v>0.3636784641935051</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1.391406745970367e-05</v>
+        <v>0.9504443850325524</v>
       </c>
       <c r="I75" t="n">
-        <v>450</v>
+        <v>7.889647335931659</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +2779,25 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D76" t="n">
-        <v>4319411996.400764</v>
+        <v>10664870657.44905</v>
       </c>
       <c r="E76" t="n">
-        <v>0.002726813800930032</v>
+        <v>0.001551751745503338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0006064228191667427</v>
+        <v>0.109050470217159</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>3.790624919634493e-06</v>
+        <v>0.05924889024136779</v>
       </c>
       <c r="I76" t="n">
-        <v>450</v>
+        <v>14.47323917771702</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +2810,25 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>450</v>
+        <v>520</v>
       </c>
       <c r="D77" t="n">
-        <v>3601338091.852296</v>
+        <v>7035537821.22743</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00344608582593801</v>
+        <v>0.003583660996018748</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0007273379874902982</v>
+        <v>0.1936003806120353</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>4.546440887837763e-06</v>
+        <v>0.3551727517627049</v>
       </c>
       <c r="I77" t="n">
-        <v>450</v>
+        <v>16.95064047840732</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +2841,25 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="D78" t="n">
-        <v>1115656505.398739</v>
+        <v>8520410387.804531</v>
       </c>
       <c r="E78" t="n">
-        <v>0.004005852520261659</v>
+        <v>0.002291478011280351</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002347846301549437</v>
+        <v>0.1469493091309446</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>1.467590667243324e-05</v>
+        <v>0.1918944567022189</v>
       </c>
       <c r="I78" t="n">
-        <v>450</v>
+        <v>15.58155028592057</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +2872,25 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D79" t="n">
-        <v>2736362818.375944</v>
+        <v>6542897549.924468</v>
       </c>
       <c r="E79" t="n">
-        <v>0.001681140985233018</v>
+        <v>0.003928845664380482</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0009572524456221897</v>
+        <v>0.1701449153842935</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>5.983589106594642e-06</v>
+        <v>0.2730788522948537</v>
       </c>
       <c r="I79" t="n">
-        <v>450</v>
+        <v>13.85388885254444</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +2903,25 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="D80" t="n">
-        <v>3802107466.613652</v>
+        <v>9144641144.712574</v>
       </c>
       <c r="E80" t="n">
-        <v>0.004946010538108961</v>
+        <v>0.002232241306376718</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0006889310791451564</v>
+        <v>0.1323352289990857</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>4.306367164920715e-06</v>
+        <v>0.1407453188142618</v>
       </c>
       <c r="I80" t="n">
-        <v>450</v>
+        <v>15.0599921173542</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +2934,25 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>450</v>
+        <v>424</v>
       </c>
       <c r="D81" t="n">
-        <v>4206508177.990417</v>
+        <v>5148053807.332355</v>
       </c>
       <c r="E81" t="n">
-        <v>0.004994294820225974</v>
+        <v>0.001917182933926802</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0006226993718222998</v>
+        <v>0.2157361600257841</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>3.892366318790076e-06</v>
+        <v>0.4326477637563073</v>
       </c>
       <c r="I81" t="n">
-        <v>450</v>
+        <v>13.82129146700905</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="D82" t="n">
-        <v>1499691726.662421</v>
+        <v>8469404886.452843</v>
       </c>
       <c r="E82" t="n">
-        <v>0.0007745767983105118</v>
+        <v>0.003206823848763001</v>
       </c>
       <c r="F82" t="n">
-        <v>0.001746618957370311</v>
+        <v>0.135463215583794</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.091775760353348e-05</v>
+        <v>0.151693241344407</v>
       </c>
       <c r="I82" t="n">
-        <v>450</v>
+        <v>14.27765486450463</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +2996,25 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D83" t="n">
-        <v>870360888.1690898</v>
+        <v>6253877513.608783</v>
       </c>
       <c r="E83" t="n">
-        <v>0.003172261218609759</v>
+        <v>0.001812576781077812</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003009544702209915</v>
+        <v>0.1830341939875105</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.881204793814676e-05</v>
+        <v>0.3181912016595607</v>
       </c>
       <c r="I83" t="n">
-        <v>450</v>
+        <v>14.24505747896923</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +3027,25 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="D84" t="n">
-        <v>2323146945.48481</v>
+        <v>8330676043.493864</v>
       </c>
       <c r="E84" t="n">
-        <v>0.002935398776652351</v>
+        <v>0.001655168646819171</v>
       </c>
       <c r="F84" t="n">
-        <v>0.001127518000999015</v>
+        <v>0.1653886350647426</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>7.047884243201854e-06</v>
+        <v>0.2564319175782351</v>
       </c>
       <c r="I84" t="n">
-        <v>450</v>
+        <v>17.14622479161971</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="D85" t="n">
-        <v>3711973462.863582</v>
+        <v>10062119142.32942</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001731753187169573</v>
+        <v>0.002764320414065716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0007056596783909349</v>
+        <v>0.1257354789884856</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>4.410934214786611e-06</v>
+        <v>0.1176462581636828</v>
       </c>
       <c r="I85" t="n">
-        <v>450</v>
+        <v>15.74453721359757</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +3089,25 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="D86" t="n">
-        <v>1853577278.109043</v>
+        <v>5138692393.424235</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003016779688830322</v>
+        <v>0.003747675497186098</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001413153921843611</v>
+        <v>0.2620056537579263</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>8.833335920274321e-06</v>
+        <v>0.5945905404181094</v>
       </c>
       <c r="I86" t="n">
-        <v>450</v>
+        <v>16.75505616519493</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +3120,25 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>450</v>
+        <v>415</v>
       </c>
       <c r="D87" t="n">
-        <v>1389707911.595429</v>
+        <v>8853221608.030388</v>
       </c>
       <c r="E87" t="n">
-        <v>0.003072457253250685</v>
+        <v>0.00213187991332115</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001884849311243293</v>
+        <v>0.1227854557502531</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.178180725252393e-05</v>
+        <v>0.1073212056100098</v>
       </c>
       <c r="I87" t="n">
-        <v>450</v>
+        <v>13.52791499719046</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +3151,25 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D88" t="n">
-        <v>2923311899.978363</v>
+        <v>7657650698.603517</v>
       </c>
       <c r="E88" t="n">
-        <v>0.0009117920891983977</v>
+        <v>0.004376081163326431</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0008960350758396283</v>
+        <v>0.1535857609977535</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>5.600931858090853e-06</v>
+        <v>0.2151219734914689</v>
       </c>
       <c r="I88" t="n">
-        <v>450</v>
+        <v>14.63622610539401</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +3182,25 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>450</v>
+        <v>509</v>
       </c>
       <c r="D89" t="n">
-        <v>1872636609.152395</v>
+        <v>10423872115.35198</v>
       </c>
       <c r="E89" t="n">
-        <v>0.0005019296093609231</v>
+        <v>0.002511555927821913</v>
       </c>
       <c r="F89" t="n">
-        <v>0.001398771116188744</v>
+        <v>0.1279053978450482</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>8.743431946006809e-06</v>
+        <v>0.1252409529921339</v>
       </c>
       <c r="I89" t="n">
-        <v>450</v>
+        <v>16.59206923751793</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +3213,25 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D90" t="n">
-        <v>483743772.0375717</v>
+        <v>6209140432.304396</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004930920503004112</v>
+        <v>0.00104923938025695</v>
       </c>
       <c r="F90" t="n">
-        <v>0.005414829402282322</v>
+        <v>0.1923683081454653</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>3.384699028322213e-05</v>
+        <v>0.3508605101496896</v>
       </c>
       <c r="I90" t="n">
-        <v>450</v>
+        <v>14.8644078041418</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +3244,25 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D91" t="n">
-        <v>1668980990.983274</v>
+        <v>9293460011.085907</v>
       </c>
       <c r="E91" t="n">
-        <v>0.004410033783401334</v>
+        <v>0.001304259300510288</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00156945466374473</v>
+        <v>0.1355713145047237</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>9.810339866171069e-06</v>
+        <v>0.152071586513058</v>
       </c>
       <c r="I91" t="n">
-        <v>450</v>
+        <v>15.67934244252677</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +3275,25 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>450</v>
+        <v>549</v>
       </c>
       <c r="D92" t="n">
-        <v>4362899460.142323</v>
+        <v>6767352069.837358</v>
       </c>
       <c r="E92" t="n">
-        <v>0.003740441218364305</v>
+        <v>0.004153207347415489</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0006003782631091281</v>
+        <v>0.2124974576702585</v>
       </c>
       <c r="G92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>3.752841636921608e-06</v>
+        <v>0.421312337108434</v>
       </c>
       <c r="I92" t="n">
-        <v>450</v>
+        <v>17.89596465893388</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +3306,25 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="D93" t="n">
-        <v>467494237.3542276</v>
+        <v>6549651532.48158</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003132384002795019</v>
+        <v>0.003862009272679614</v>
       </c>
       <c r="F93" t="n">
-        <v>0.005603042328017506</v>
+        <v>0.1923654386422952</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>3.50234707584612e-05</v>
+        <v>0.3508504669165886</v>
       </c>
       <c r="I93" t="n">
-        <v>450</v>
+        <v>15.67934244252677</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +3337,25 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D94" t="n">
-        <v>3088201717.775626</v>
+        <v>8723564745.683128</v>
       </c>
       <c r="E94" t="n">
-        <v>0.003884378204244046</v>
+        <v>0.004689348671871648</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0008481926504097336</v>
+        <v>0.1363207696244221</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>5.301878649144161e-06</v>
+        <v>0.154694672120391</v>
       </c>
       <c r="I94" t="n">
-        <v>450</v>
+        <v>14.79921303307101</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +3368,25 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>450</v>
+        <v>583</v>
       </c>
       <c r="D95" t="n">
-        <v>2864211086.268296</v>
+        <v>9179847539.91329</v>
       </c>
       <c r="E95" t="n">
-        <v>0.0006846881740966699</v>
+        <v>0.001191019939142208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0009145240769990639</v>
+        <v>0.1663540013448224</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>5.716502819998929e-06</v>
+        <v>0.2598106901404947</v>
       </c>
       <c r="I95" t="n">
-        <v>450</v>
+        <v>9.658822384289332</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>450</v>
+        <v>595</v>
       </c>
       <c r="D96" t="n">
-        <v>3929859575.691922</v>
+        <v>10470987130.384</v>
       </c>
       <c r="E96" t="n">
-        <v>0.003092550209794676</v>
+        <v>0.002045385215249732</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0006665352666039752</v>
+        <v>0.1488433736564858</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>4.166375524713782e-06</v>
+        <v>0.1985236640633029</v>
       </c>
       <c r="I96" t="n">
-        <v>450</v>
+        <v>9.167002016595049</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +3430,25 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>450</v>
+        <v>599</v>
       </c>
       <c r="D97" t="n">
-        <v>356891730.9061045</v>
+        <v>10874382288.27861</v>
       </c>
       <c r="E97" t="n">
-        <v>0.0006378078790579216</v>
+        <v>0.003263687175329887</v>
       </c>
       <c r="F97" t="n">
-        <v>0.007339452761625182</v>
+        <v>0.1442854010835379</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>4.587741696944106e-05</v>
+        <v>0.1825708045251241</v>
       </c>
       <c r="I97" t="n">
-        <v>450</v>
+        <v>8.141062407052075</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +3461,25 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="D98" t="n">
-        <v>1335580020.245311</v>
+        <v>5450415066.539417</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001147108423694674</v>
+        <v>0.001715347788404721</v>
       </c>
       <c r="F98" t="n">
-        <v>0.001961237784553626</v>
+        <v>0.1960788503174579</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1.225929596394949e-05</v>
+        <v>0.3638473715519739</v>
       </c>
       <c r="I98" t="n">
-        <v>450</v>
+        <v>13.29973329844267</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +3492,25 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="D99" t="n">
-        <v>2976830247.035522</v>
+        <v>11202130720.75914</v>
       </c>
       <c r="E99" t="n">
-        <v>0.003834960458402864</v>
+        <v>0.004233064340437886</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0008799258884877702</v>
+        <v>0.1246311889052289</v>
       </c>
       <c r="G99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>5.500236625192263e-06</v>
+        <v>0.1137812536456313</v>
       </c>
       <c r="I99" t="n">
-        <v>450</v>
+        <v>17.3744064903675</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +3523,25 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D100" t="n">
-        <v>2363047043.720602</v>
+        <v>3851193159.331995</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00169563756115441</v>
+        <v>0.001900736546156981</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00110847983621849</v>
+        <v>0.3026668623918575</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>6.928880571901483e-06</v>
+        <v>0.7369043739500587</v>
       </c>
       <c r="I100" t="n">
-        <v>450</v>
+        <v>14.50583656325242</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +3554,25 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>450</v>
+        <v>649</v>
       </c>
       <c r="D101" t="n">
-        <v>1002716269.802948</v>
+        <v>5176741858.335378</v>
       </c>
       <c r="E101" t="n">
-        <v>0.002064102610723788</v>
+        <v>0.004566768039588344</v>
       </c>
       <c r="F101" t="n">
-        <v>0.002612294303865996</v>
+        <v>0.3283888122145313</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1.632891700754248e-05</v>
+        <v>0.8269309473885675</v>
       </c>
       <c r="I101" t="n">
-        <v>450</v>
+        <v>6.745533213034654</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_2.xlsx
+++ b/output/fit_clients/fit_round_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>4208415172.897496</v>
+        <v>12807922435.2412</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2956481713146568</v>
+        <v>0.09755282609786277</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.712339023653526</v>
+        <v>0.06309527768645702</v>
       </c>
       <c r="I2" t="n">
-        <v>15.48375812931438</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8088130436692516</v>
+      </c>
+      <c r="N2" t="n">
+        <v>16.17626087338503</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>3847586353.51015</v>
+        <v>7240099234.412595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3778372507932758</v>
+        <v>0.2174353332779592</v>
       </c>
       <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4105923202172866</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.09154897214627</v>
+      <c r="J3" t="n">
+        <v>0.7795719872555444</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4946317272003546</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.30987625301503</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7965153976730507</v>
+      </c>
+      <c r="N3" t="n">
+        <v>11.62043170044598</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>9002689325.008356</v>
+        <v>12131281980.68066</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1649722739930961</v>
+        <v>0.107960148159586</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2549746578894508</v>
+        <v>0.0932624281922575</v>
       </c>
       <c r="I4" t="n">
-        <v>9.661634492220943</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.8203206308168779</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16.40641261633756</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>8211276504.428463</v>
+        <v>13896719428.90244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1767255138975502</v>
+        <v>0.07746931176871485</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.296110882891571</v>
+        <v>0.004880263693463695</v>
       </c>
       <c r="I5" t="n">
-        <v>18.05895158661087</v>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7734730376777329</v>
+      </c>
+      <c r="N5" t="n">
+        <v>15.46946075355466</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>5993485037.023369</v>
+        <v>10091494743.81687</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.204097469576319</v>
+        <v>0.1334159600910389</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3919124607291153</v>
+        <v>0.1670498352917106</v>
       </c>
       <c r="I6" t="n">
-        <v>15.22297904503119</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.827144846938339</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16.54289693876678</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>7748477301.455028</v>
+        <v>4329877779.548592</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1517854494816869</v>
+        <v>0.3702337021085909</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2088209007489004</v>
+        <v>0.8535008188893501</v>
       </c>
       <c r="I7" t="n">
-        <v>14.63622610539401</v>
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8252415597904847</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4772818131828728</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.292526338997549</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.8330342352861781</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12.36815836672601</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>8341720245.356235</v>
+        <v>3682484488.547296</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1833822898642021</v>
+        <v>0.3272028446412625</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3194095338319915</v>
+        <v>0.7287695627687336</v>
       </c>
       <c r="I8" t="n">
-        <v>10.2583505837183</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.8000552552475136</v>
+      </c>
+      <c r="N8" t="n">
+        <v>16.00110510495027</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>6513633067.042584</v>
+        <v>3956137425.959862</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1785499962969278</v>
+        <v>0.3370129412722598</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3024965534899191</v>
+        <v>0.7572055677072356</v>
       </c>
       <c r="I9" t="n">
-        <v>14.47323917771702</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.8247227361568439</v>
+      </c>
+      <c r="N9" t="n">
+        <v>16.49445472313688</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>8145385872.202086</v>
+        <v>12869550214.11864</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1778335235097211</v>
+        <v>0.1062447060892594</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2999889057245347</v>
+        <v>0.08828996757149382</v>
       </c>
       <c r="I10" t="n">
-        <v>18.02635420107547</v>
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.8309861465199297</v>
+      </c>
+      <c r="N10" t="n">
+        <v>16.61972293039859</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>10914971682.32503</v>
+        <v>11460708632.15766</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09863234842315935</v>
+        <v>0.1323327255475712</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02278556560055543</v>
+        <v>0.1639099209783007</v>
       </c>
       <c r="I11" t="n">
-        <v>13.39752545504886</v>
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8572277112977751</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17.1445542259555</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>6626372616.497289</v>
+        <v>12395255691.0703</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1913240974169897</v>
+        <v>0.1027024832506765</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3472057827872433</v>
+        <v>0.07802231477254491</v>
       </c>
       <c r="I12" t="n">
-        <v>15.77713459913297</v>
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.8133613165872734</v>
+      </c>
+      <c r="N12" t="n">
+        <v>16.26722633174547</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>4650085393.887639</v>
+        <v>10601623076.636</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2664405844306819</v>
+        <v>0.1351497143072024</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.610112754506</v>
+        <v>0.1720753763549043</v>
       </c>
       <c r="I13" t="n">
-        <v>15.41856335824358</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.8427307299912161</v>
+      </c>
+      <c r="N13" t="n">
+        <v>16.85461459982432</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>10518294500.14806</v>
+        <v>9096033501.35428</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1317378316399578</v>
+        <v>0.1771019037869808</v>
       </c>
       <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.2936799549946839</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0.1386544338854649</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17.24401694822591</v>
+      <c r="J14" t="n">
+        <v>0.770944429087926</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.2040126255110894</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.019257151325766</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8023780488215876</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12.02830382510598</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10532355692.60191</v>
+        <v>11323591797.926</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1395203345660063</v>
+        <v>0.08674555454921201</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1658931182012904</v>
+        <v>0.0317688148911642</v>
       </c>
       <c r="I15" t="n">
-        <v>9.385896180903556</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.7524922181858845</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15.04984436371769</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>11470149512.46519</v>
+        <v>4657112485.075838</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1363343893905276</v>
+        <v>0.2862867311606901</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1547423411688872</v>
+        <v>0.6101682024802386</v>
       </c>
       <c r="I16" t="n">
-        <v>8.628807122556694</v>
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8247227361568439</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.49445472313688</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>4939603862.894446</v>
+        <v>6607445942.508584</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2349155523819778</v>
+        <v>0.2172436570029699</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4997754498906925</v>
+        <v>0.4100367184014016</v>
       </c>
       <c r="I17" t="n">
-        <v>14.44064179218162</v>
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8431926269181805</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16.86385253836361</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6261565763.732156</v>
+        <v>9410882722.950539</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1949409757971543</v>
+        <v>0.1166228973742752</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3598648218319046</v>
+        <v>0.1183726782454074</v>
       </c>
       <c r="I18" t="n">
-        <v>15.19038165949579</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7779592333199858</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15.55918466639972</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>7600780759.800567</v>
+        <v>9690454191.491783</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1729998300904159</v>
+        <v>0.1351531078027191</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2830710259140108</v>
+        <v>0.1720852128997315</v>
       </c>
       <c r="I19" t="n">
-        <v>16.36388753877014</v>
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.8203206308168779</v>
+      </c>
+      <c r="N19" t="n">
+        <v>16.40641261633756</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5020503330.770469</v>
+        <v>9830525824.281105</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.305217036827429</v>
+        <v>0.1505469164573633</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7458299595953041</v>
+        <v>0.2167064266748007</v>
       </c>
       <c r="I20" t="n">
-        <v>10.28820221394697</v>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.8509561220970988</v>
+      </c>
+      <c r="N20" t="n">
+        <v>17.01912244194198</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>4216177937.285532</v>
+        <v>9466284367.797148</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3354864574123423</v>
+        <v>0.1043186525601701</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8517726363369676</v>
+        <v>0.08270701872551132</v>
       </c>
       <c r="I21" t="n">
-        <v>17.60258818911529</v>
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.7536939650594744</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.07387930118949</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>8651594788.317072</v>
+        <v>13827735873.294</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1659145805046681</v>
+        <v>0.1144158070776857</v>
       </c>
       <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1119751030803237</v>
+      </c>
+      <c r="I22" t="n">
         <v>1</v>
       </c>
-      <c r="H22" t="n">
-        <v>0.2582727214869019</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17.86336727339848</v>
+      <c r="J22" t="n">
+        <v>0.7868997411798868</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.161741325385484</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.97698585120016</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8035748187062082</v>
+      </c>
+      <c r="N22" t="n">
+        <v>12.094510522924</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>4582068961.325646</v>
+        <v>5906558666.111902</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2732539450121593</v>
+        <v>0.2385876276968653</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6339594500706855</v>
+        <v>0.4719053501680949</v>
       </c>
       <c r="I23" t="n">
-        <v>15.58155028592057</v>
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.8385468183528914</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16.77093636705783</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>9122484009.56872</v>
+        <v>8380504646.627843</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1507461946282999</v>
+        <v>0.1778452459422861</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2051835189009154</v>
+        <v>0.2958346413341096</v>
       </c>
       <c r="I24" t="n">
-        <v>17.11362740608431</v>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8527590020486239</v>
+      </c>
+      <c r="N24" t="n">
+        <v>17.05518004097248</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>9736854856.720762</v>
+        <v>10132027089.78965</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1358541304625648</v>
+        <v>0.1274531994985822</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1530614396063769</v>
+        <v>0.1497658985444978</v>
       </c>
       <c r="I25" t="n">
-        <v>16.46167969537634</v>
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.8168582667578399</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16.3371653351568</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>10501675909.14066</v>
+        <v>3679073776.350169</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1042600275873106</v>
+        <v>0.4207742448523973</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04248238777199222</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>13.62570715379665</v>
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.8466974779427698</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1696876071254212</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.984932132940097</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.8285909672347244</v>
+      </c>
+      <c r="N26" t="n">
+        <v>12.58688721175439</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>8554761355.629659</v>
+        <v>13463781500.09414</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1711607079531708</v>
+        <v>0.1142013430616985</v>
       </c>
       <c r="G27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1113534476525401</v>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>0.2766341163759505</v>
-      </c>
-      <c r="I27" t="n">
-        <v>18.22193851428787</v>
+      <c r="J27" t="n">
+        <v>0.7696797932658132</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838243751710803</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.999068900985757</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.778409685537505</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11.56912480976434</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>6479788774.537223</v>
+        <v>12131879937.0851</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1778656126151754</v>
+        <v>0.124795780031744</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3001012172805666</v>
+        <v>0.1420629781834575</v>
       </c>
       <c r="I28" t="n">
-        <v>14.34284963557542</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8567832831086318</v>
+      </c>
+      <c r="N28" t="n">
+        <v>17.13566566217264</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>8620744440.436335</v>
+        <v>10681002359.62668</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1583044480008882</v>
+        <v>0.1515572195844528</v>
       </c>
       <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2196349385735037</v>
+      </c>
+      <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.2316373319673873</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16.98323786394272</v>
+      <c r="J29" t="n">
+        <v>0.8309167763224883</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2572236769242652</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4.072468202738941</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.8409786108814199</v>
+      </c>
+      <c r="N29" t="n">
+        <v>12.74710401488946</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>4920412399.54464</v>
+        <v>7692001750.689733</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3130228108811648</v>
+        <v>0.1624348343248834</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7731500926310044</v>
+        <v>0.2511653014346248</v>
       </c>
       <c r="I30" t="n">
-        <v>10.67958407096143</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.8088130436692516</v>
+      </c>
+      <c r="N30" t="n">
+        <v>16.17626087338503</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>8596647988.812019</v>
+        <v>5723942713.062049</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1712408350226552</v>
+        <v>0.1716074564754911</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2769145603374341</v>
+        <v>0.2777534930279196</v>
       </c>
       <c r="I31" t="n">
-        <v>8.942797824563717</v>
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.7524922181858845</v>
+      </c>
+      <c r="N31" t="n">
+        <v>15.04984436371769</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>6509438912.401661</v>
+        <v>13386849315.49738</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1802746343873502</v>
+        <v>0.07768055092665868</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3085327699809954</v>
+        <v>0.005492571396887917</v>
       </c>
       <c r="I32" t="n">
-        <v>14.60362871985861</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.7654728379435199</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15.3094567588704</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>6050313971.738635</v>
+        <v>9432499159.597263</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1813995794477113</v>
+        <v>0.1441254737475158</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3124700667174042</v>
+        <v>0.1980929324883558</v>
       </c>
       <c r="I33" t="n">
-        <v>13.65830453933205</v>
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.8295505204246784</v>
+      </c>
+      <c r="N33" t="n">
+        <v>16.59101040849357</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>9144285054.305115</v>
+        <v>9835028277.117155</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1538242106022022</v>
+        <v>0.1129250805088224</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2159565447807479</v>
+        <v>0.1076540133226338</v>
       </c>
       <c r="I34" t="n">
-        <v>17.5047960325091</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.7807327361716209</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15.61465472343242</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>7902379013.024247</v>
+        <v>13467807460.80007</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1571160859221864</v>
+        <v>0.1188350289873333</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.227478076285476</v>
+        <v>0.1247848664062026</v>
       </c>
       <c r="I35" t="n">
-        <v>15.45116074377898</v>
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8134868979370969</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4403274450095466</v>
+      </c>
+      <c r="L35" t="n">
+        <v>4.255571970824223</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8253473627166661</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12.2513752835091</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>7313311054.437016</v>
+        <v>11331645184.73969</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2113187978053217</v>
+        <v>0.1070257275292422</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.4171870390800467</v>
+        <v>0.09055387284784476</v>
       </c>
       <c r="I36" t="n">
-        <v>9.302423980500965</v>
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.8016170208681243</v>
+      </c>
+      <c r="N36" t="n">
+        <v>16.03234041736248</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4862432429.83277</v>
+        <v>9631281352.019588</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2472630781712168</v>
+        <v>0.102803498705017</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5429916696917645</v>
+        <v>0.07831512289325346</v>
       </c>
       <c r="I37" t="n">
-        <v>14.962199960748</v>
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7542931655626864</v>
+      </c>
+      <c r="N37" t="n">
+        <v>15.08586331125373</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11629453858.84148</v>
+        <v>10714195167.69965</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09212216867651993</v>
+        <v>0.1175941421898242</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.1211879738954197</v>
       </c>
       <c r="I38" t="n">
-        <v>13.33233068397806</v>
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.8108418496715585</v>
+      </c>
+      <c r="N38" t="n">
+        <v>16.21683699343117</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>4244633827.702881</v>
+        <v>3957684486.824721</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2746122745364862</v>
+        <v>0.3792395465066977</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.6387135901540988</v>
+        <v>0.8796055806886142</v>
       </c>
       <c r="I39" t="n">
-        <v>14.50583656325242</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.8545530318779594</v>
+      </c>
+      <c r="N39" t="n">
+        <v>17.09106063755919</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>7690164497.159497</v>
+        <v>6496127937.650709</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1812074995944132</v>
+        <v>0.214111560509538</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3117977891047732</v>
+        <v>0.4009578770091899</v>
       </c>
       <c r="I40" t="n">
-        <v>17.3418091048321</v>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.8352586637865922</v>
+      </c>
+      <c r="N40" t="n">
+        <v>16.70517327573184</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>10204340822.60715</v>
+        <v>13904852694.5258</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1255232192129724</v>
+        <v>0.08439404183418567</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1169033510201724</v>
+        <v>0.02495261014898508</v>
       </c>
       <c r="I41" t="n">
-        <v>15.94012152680996</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7937359245678085</v>
+      </c>
+      <c r="N41" t="n">
+        <v>15.87471849135617</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>4568390789.405225</v>
+        <v>8619571716.704483</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2666182483391658</v>
+        <v>0.1312798961701354</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.610734576452422</v>
+        <v>0.1608581405012798</v>
       </c>
       <c r="I42" t="n">
-        <v>15.15778427396039</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.78512310250898</v>
+      </c>
+      <c r="N42" t="n">
+        <v>15.7024620501796</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>8822803964.545301</v>
+        <v>9679755880.785425</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1445847527754452</v>
+        <v>0.1022886767181219</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1836185325263534</v>
+        <v>0.07682283580246781</v>
       </c>
       <c r="I43" t="n">
-        <v>15.87492675573916</v>
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.7542931655626864</v>
+      </c>
+      <c r="N43" t="n">
+        <v>15.08586331125373</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>9561649681.657576</v>
+        <v>14472722733.53161</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1575198109264864</v>
+        <v>0.1066019669143156</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.228891109861824</v>
+        <v>0.08932554050902554</v>
       </c>
       <c r="I44" t="n">
-        <v>8.589046504851934</v>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.7803434432714199</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.1247518777827504</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.939996403597426</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7869987516471975</v>
+      </c>
+      <c r="N44" t="n">
+        <v>11.79997862934652</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>4208424482.847162</v>
+        <v>7982152099.914396</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3722046638556463</v>
+        <v>0.1233866039724503</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9802860006692686</v>
+        <v>0.1379782745471365</v>
       </c>
       <c r="I45" t="n">
-        <v>10.27762788120581</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.7530936509470859</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15.06187301894172</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>6699035557.624802</v>
+        <v>4102572572.892994</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1603141065250261</v>
+        <v>0.3792541466007072</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.238671117195836</v>
+        <v>0.8796479012039945</v>
       </c>
       <c r="I46" t="n">
-        <v>13.36492806951346</v>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.7954489943536308</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.5126239661604088</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.327868491975085</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8006800694323597</v>
+      </c>
+      <c r="N46" t="n">
+        <v>11.68573289667211</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>11027100355.36336</v>
+        <v>5679259429.524124</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1128320419605904</v>
+        <v>0.1932513250397444</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.07248435445073051</v>
+        <v>0.3404914227886406</v>
       </c>
       <c r="I47" t="n">
-        <v>15.48375812931438</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7779592333199858</v>
+      </c>
+      <c r="N47" t="n">
+        <v>15.55918466639972</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>5080103340.666799</v>
+        <v>3767238936.458548</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3016362162819446</v>
+        <v>0.4053643519185907</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.7332971226202472</v>
+        <v>0.9553321635810468</v>
       </c>
       <c r="I48" t="n">
-        <v>10.1368087015523</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.7790689714761432</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2364238167667653</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.051668342581442</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7810637860959212</v>
+      </c>
+      <c r="N48" t="n">
+        <v>11.56960737933698</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>9884577102.652449</v>
+        <v>3907798579.61501</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1165989792007113</v>
+        <v>0.288898485169935</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08566859804127896</v>
+        <v>0.6177387548100058</v>
       </c>
       <c r="I49" t="n">
-        <v>14.34284963557542</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7845774358191848</v>
+      </c>
+      <c r="N49" t="n">
+        <v>15.6915487163837</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>5848323406.684436</v>
+        <v>14052548523.77745</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2369324015864513</v>
+        <v>0.09711421296221616</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5068344024301648</v>
+        <v>0.06182389313638753</v>
       </c>
       <c r="I50" t="n">
-        <v>17.24401694822591</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.8305082477114392</v>
+      </c>
+      <c r="N50" t="n">
+        <v>16.61016495422878</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>8013263003.258731</v>
+        <v>13940815839.0524</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1559226284588301</v>
+        <v>0.09657730763707706</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2233009868069844</v>
+        <v>0.06026759424847215</v>
       </c>
       <c r="I51" t="n">
-        <v>15.54895290038518</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.827144846938339</v>
+      </c>
+      <c r="N51" t="n">
+        <v>16.54289693876678</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>9575615379.172396</v>
+        <v>8224734289.17568</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.146348155654631</v>
+        <v>0.1363082235343996</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.189790425399916</v>
+        <v>0.1754334853873665</v>
       </c>
       <c r="I52" t="n">
-        <v>17.4396012614383</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.7829350999615016</v>
+      </c>
+      <c r="N52" t="n">
+        <v>15.65870199923003</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>4672903470.277645</v>
+        <v>13524893781.43291</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2550496618602709</v>
+        <v>0.1022586899646226</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.5702446366382983</v>
+        <v>0.07673591479621576</v>
       </c>
       <c r="I53" t="n">
-        <v>14.8318104186064</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.8338401627472654</v>
+      </c>
+      <c r="N53" t="n">
+        <v>16.67680325494531</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>5053824318.380787</v>
+        <v>12021670749.41143</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2866191182648979</v>
+        <v>0.1324765212088322</v>
       </c>
       <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.1643267338077311</v>
+      </c>
+      <c r="I54" t="n">
         <v>1</v>
       </c>
-      <c r="H54" t="n">
-        <v>0.6807374260659362</v>
-      </c>
-      <c r="I54" t="n">
-        <v>18.02635420107547</v>
+      <c r="J54" t="n">
+        <v>0.8278431092069773</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.1669714153500969</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.982215941164773</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.8313977647896789</v>
+      </c>
+      <c r="N54" t="n">
+        <v>12.6457393546288</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>10945792854.16845</v>
+        <v>8818370341.152674</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.135686299730622</v>
+        <v>0.1500041276137983</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1524740336819174</v>
+        <v>0.2151330735451886</v>
       </c>
       <c r="I55" t="n">
-        <v>9.771361283570119</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.8227730278247403</v>
+      </c>
+      <c r="N55" t="n">
+        <v>16.45546055649481</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>4545791275.60815</v>
+        <v>14434483923.36473</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3376667442335763</v>
+        <v>0.08674147455824928</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8594036189406199</v>
+        <v>0.03175698843852777</v>
       </c>
       <c r="I56" t="n">
-        <v>10.70635061227914</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8093213583101396</v>
+      </c>
+      <c r="N56" t="n">
+        <v>16.18642716620279</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>7168903783.163523</v>
+        <v>9210304684.010738</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1523643869464784</v>
+        <v>0.1069335569006516</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.2108471762276128</v>
+        <v>0.09028670275275037</v>
       </c>
       <c r="I57" t="n">
-        <v>13.59310976826125</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.7530936509470859</v>
+      </c>
+      <c r="N57" t="n">
+        <v>15.06187301894172</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>4308923731.645777</v>
+        <v>6593593144.130136</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2644360218380559</v>
+        <v>0.245508478399384</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6030968049881276</v>
+        <v>0.4919664517207154</v>
       </c>
       <c r="I58" t="n">
-        <v>14.17986270789843</v>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.8014351130221694</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.2010660388926516</v>
+      </c>
+      <c r="L58" t="n">
+        <v>4.016310564707328</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.8236414727303516</v>
+      </c>
+      <c r="N58" t="n">
+        <v>12.4565188898997</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>11852969650.64891</v>
+        <v>4403024807.032661</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1149148981348679</v>
+        <v>0.3587288828073785</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07977433074055873</v>
+        <v>0.8201524115523484</v>
       </c>
       <c r="I59" t="n">
-        <v>16.95064047840732</v>
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.8051757395796348</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.4090073128680325</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.224251838682709</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.8139868955983977</v>
+      </c>
+      <c r="N59" t="n">
+        <v>12.05548607328524</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>10375641406.14012</v>
+        <v>7947239002.935863</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1479390506973031</v>
+        <v>0.127883824762858</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1953585425286505</v>
+        <v>0.151014129076998</v>
       </c>
       <c r="I60" t="n">
-        <v>11.07547332915393</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.7602250055398955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>15.20450011079791</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>10040841443.77326</v>
+        <v>10707994444.69565</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.105392916114242</v>
+        <v>0.09368947426910201</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.04644748656390171</v>
+        <v>0.0518967853765354</v>
       </c>
       <c r="I61" t="n">
-        <v>13.16934375630107</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.7572726378304143</v>
+      </c>
+      <c r="N61" t="n">
+        <v>15.14545275660829</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4858292554.590199</v>
+        <v>4739297811.155406</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3100161698942902</v>
+        <v>0.3216689561925508</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7626268785094412</v>
+        <v>0.7127287748768524</v>
       </c>
       <c r="I62" t="n">
-        <v>10.95402053136623</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.8585577802641519</v>
+      </c>
+      <c r="N62" t="n">
+        <v>17.17115560528304</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>6578417399.059291</v>
+        <v>5945881391.147332</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2233786184212231</v>
+        <v>0.2625609791551451</v>
       </c>
       <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.5413956280014526</v>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>0.4593962935812604</v>
-      </c>
-      <c r="I63" t="n">
-        <v>18.28713328535866</v>
+      <c r="J63" t="n">
+        <v>0.822919119608462</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.3649754357957464</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.180219961610423</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8189025993087504</v>
+      </c>
+      <c r="N63" t="n">
+        <v>12.19783202456459</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>4490457783.846795</v>
+        <v>5819639374.644054</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3044949191858721</v>
+        <v>0.214245172206441</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.7433025548947647</v>
+        <v>0.4013451701232017</v>
       </c>
       <c r="I64" t="n">
-        <v>17.01583524947812</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.8083039825256113</v>
+      </c>
+      <c r="N64" t="n">
+        <v>16.16607965051223</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>10319428978.69279</v>
+        <v>8494649504.261055</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1170160473504188</v>
+        <v>0.1181009727943178</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08712833249637883</v>
+        <v>0.1226570967913985</v>
       </c>
       <c r="I65" t="n">
-        <v>15.0273947318188</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.7572726378304143</v>
+      </c>
+      <c r="N65" t="n">
+        <v>15.14545275660829</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>11329777236.59857</v>
+        <v>11251816019.58963</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1086617392637815</v>
+        <v>0.1082506457517088</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.05788833569696802</v>
+        <v>0.09410447810011739</v>
       </c>
       <c r="I66" t="n">
-        <v>15.32077120163738</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.802654266696475</v>
+      </c>
+      <c r="N66" t="n">
+        <v>16.0530853339295</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>7187676741.986292</v>
+        <v>10789487823.85432</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1672724098701951</v>
+        <v>0.09346737921798284</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2630251110193948</v>
+        <v>0.05125301027339459</v>
       </c>
       <c r="I67" t="n">
-        <v>14.962199960748</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.7584568038927256</v>
+      </c>
+      <c r="N67" t="n">
+        <v>15.16913607785451</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8404460215.687317</v>
+        <v>8565464993.159981</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1390033279971283</v>
+        <v>0.1568796406351622</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1640836002540835</v>
+        <v>0.2350627571746517</v>
       </c>
       <c r="I68" t="n">
-        <v>14.53843394878782</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.8266617484755235</v>
+      </c>
+      <c r="N68" t="n">
+        <v>16.53323496951047</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>6150706997.675358</v>
+        <v>6557683169.877178</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2316722550006942</v>
+        <v>0.1877360140933826</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.4884239406974951</v>
+        <v>0.3245044845139894</v>
       </c>
       <c r="I69" t="n">
-        <v>17.73297773125689</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.8052337886263108</v>
+      </c>
+      <c r="N69" t="n">
+        <v>16.10467577252621</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>5908588637.9681</v>
+        <v>12307424330.27761</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.2247627667741472</v>
+        <v>0.08577051880815334</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4642407993128778</v>
+        <v>0.02894253068715819</v>
       </c>
       <c r="I70" t="n">
-        <v>16.52687446644714</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.7689252926457179</v>
+      </c>
+      <c r="N70" t="n">
+        <v>15.37850585291436</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>9574004741.944174</v>
+        <v>7421733018.457428</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1140886869644679</v>
+        <v>0.2022318057342296</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.07688259970459475</v>
+        <v>0.36652266417026</v>
       </c>
       <c r="I71" t="n">
-        <v>13.59310976826125</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.8545530318779594</v>
+      </c>
+      <c r="N71" t="n">
+        <v>17.09106063755919</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>11039988348.55899</v>
+        <v>7502062062.086788</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.110802212047594</v>
+        <v>0.1857509933225449</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.06537996955806674</v>
+        <v>0.3187506104630226</v>
       </c>
       <c r="I72" t="n">
-        <v>15.22297904503119</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.8357302506246859</v>
+      </c>
+      <c r="N72" t="n">
+        <v>16.71460501249372</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>8819367171.691917</v>
+        <v>7594389166.18678</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1511751902426151</v>
+        <v>0.1969443041791065</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.206684999365779</v>
+        <v>0.3511960648522946</v>
       </c>
       <c r="I73" t="n">
-        <v>16.59206923751793</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8536571166337977</v>
+      </c>
+      <c r="N73" t="n">
+        <v>17.07314233267595</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>10868888667.89724</v>
+        <v>10558916382.87977</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1091724928147197</v>
+        <v>0.09625261562331022</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.05967596814238973</v>
+        <v>0.05932642679067238</v>
       </c>
       <c r="I74" t="n">
-        <v>14.76661564753561</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7602250055398955</v>
+      </c>
+      <c r="N74" t="n">
+        <v>15.20450011079791</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>4091013536.639794</v>
+        <v>4094726864.091969</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3636784641935051</v>
+        <v>0.2533205447953664</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9504443850325524</v>
+        <v>0.5146108727669</v>
       </c>
       <c r="I75" t="n">
-        <v>7.889647335931659</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7648938843014881</v>
+      </c>
+      <c r="N75" t="n">
+        <v>15.29787768602976</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>10664870657.44905</v>
+        <v>9771914492.028856</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.109050470217159</v>
+        <v>0.1616358975806044</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.05924889024136779</v>
+        <v>0.2488494660192952</v>
       </c>
       <c r="I76" t="n">
-        <v>14.47323917771702</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.7978098952639755</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.3689307977591891</v>
+      </c>
+      <c r="L76" t="n">
+        <v>4.184175323573865</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.8095061480750265</v>
+      </c>
+      <c r="N76" t="n">
+        <v>12.00594763792667</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>7035537821.22743</v>
+        <v>7030358650.522006</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1936003806120353</v>
+        <v>0.1710154587790096</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.3551727517627049</v>
+        <v>0.2760375008156169</v>
       </c>
       <c r="I77" t="n">
-        <v>16.95064047840732</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7995330825884236</v>
+      </c>
+      <c r="N77" t="n">
+        <v>15.99066165176847</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>8520410387.804531</v>
+        <v>7932956614.900388</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1469493091309446</v>
+        <v>0.1512274273310222</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1918944567022189</v>
+        <v>0.2186789873224629</v>
       </c>
       <c r="I78" t="n">
-        <v>15.58155028592057</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7990101129791948</v>
+      </c>
+      <c r="N78" t="n">
+        <v>15.9802022595839</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>6542897549.924468</v>
+        <v>6919564236.820683</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1701449153842935</v>
+        <v>0.2017662994688057</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.2730788522948537</v>
+        <v>0.365173325936356</v>
       </c>
       <c r="I79" t="n">
-        <v>13.85388885254444</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.83620121736134</v>
+      </c>
+      <c r="N79" t="n">
+        <v>16.7240243472268</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9144641144.712574</v>
+        <v>5753649961.371469</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1323352289990857</v>
+        <v>0.2558544906074028</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1407453188142618</v>
+        <v>0.5219558866169458</v>
       </c>
       <c r="I80" t="n">
-        <v>15.0599921173542</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.8495980900823603</v>
+      </c>
+      <c r="N80" t="n">
+        <v>16.99196180164721</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>5148053807.332355</v>
+        <v>8546748055.11252</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2157361600257841</v>
+        <v>0.1186069746602182</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.4326477637563073</v>
+        <v>0.124123817466929</v>
       </c>
       <c r="I81" t="n">
-        <v>13.82129146700905</v>
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.7596366716902931</v>
+      </c>
+      <c r="N81" t="n">
+        <v>15.19273343380586</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>8469404886.452843</v>
+        <v>11918433847.65698</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.135463215583794</v>
+        <v>0.1090090742296153</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.151693241344407</v>
+        <v>0.09630289435986195</v>
       </c>
       <c r="I82" t="n">
-        <v>14.27765486450463</v>
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.8183463236222793</v>
+      </c>
+      <c r="N82" t="n">
+        <v>16.36692647244559</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>6253877513.608783</v>
+        <v>6588841361.090448</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1830341939875105</v>
+        <v>0.2258080652519714</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.3181912016595607</v>
+        <v>0.4348619127317448</v>
       </c>
       <c r="I83" t="n">
-        <v>14.24505747896923</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.8523091158961121</v>
+      </c>
+      <c r="N83" t="n">
+        <v>17.04618231792224</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>8330676043.493864</v>
+        <v>12549662320.32487</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1653886350647426</v>
+        <v>0.1262767801674983</v>
       </c>
       <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.1463558744472071</v>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="n">
-        <v>0.2564319175782351</v>
-      </c>
-      <c r="I84" t="n">
-        <v>17.14622479161971</v>
+      <c r="J84" t="n">
+        <v>0.7900735099717752</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3758198018465676</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4.191064327661244</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.8063596778948421</v>
+      </c>
+      <c r="N84" t="n">
+        <v>11.9361292302356</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>10062119142.32942</v>
+        <v>8040735165.117053</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1257354789884856</v>
+        <v>0.1563671945638191</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1176462581636828</v>
+        <v>0.2335773570238126</v>
       </c>
       <c r="I85" t="n">
-        <v>15.74453721359757</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.8103357586806635</v>
+      </c>
+      <c r="N85" t="n">
+        <v>16.20671517361327</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>5138692393.424235</v>
+        <v>5293181818.991914</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2620056537579263</v>
+        <v>0.2914732126647088</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.5945905404181094</v>
+        <v>0.6252019803531003</v>
       </c>
       <c r="I86" t="n">
-        <v>16.75505616519493</v>
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.7721083735410569</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.2591852001149781</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4.074429725929654</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.7816974065448244</v>
+      </c>
+      <c r="N86" t="n">
+        <v>11.55951840496683</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8853221608.030388</v>
+        <v>11545448344.4211</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1227854557502531</v>
+        <v>0.1347645941139945</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1073212056100098</v>
+        <v>0.1709590489497925</v>
       </c>
       <c r="I87" t="n">
-        <v>13.52791499719046</v>
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.8140094831349222</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2771773889371906</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4.092421914751867</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8119770759855466</v>
+      </c>
+      <c r="N87" t="n">
+        <v>12.14711960495907</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>7657650698.603517</v>
+        <v>12325620353.98139</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535857609977535</v>
+        <v>0.0939320169492337</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2151219734914689</v>
+        <v>0.052599830933521</v>
       </c>
       <c r="I88" t="n">
-        <v>14.63622610539401</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7905317435371614</v>
+      </c>
+      <c r="N88" t="n">
+        <v>15.81063487074323</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>10423872115.35198</v>
+        <v>11119588167.61195</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1279053978450482</v>
+        <v>0.1361567890085941</v>
       </c>
       <c r="G89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.1252409529921339</v>
+        <v>0.1749945301878775</v>
       </c>
       <c r="I89" t="n">
-        <v>16.59206923751793</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8567832831086318</v>
+      </c>
+      <c r="N89" t="n">
+        <v>17.13566566217264</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>6209140432.304396</v>
+        <v>10513177733.01369</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1923683081454653</v>
+        <v>0.1073849523588692</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3508605101496896</v>
+        <v>0.09159513874088701</v>
       </c>
       <c r="I90" t="n">
-        <v>14.8644078041418</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7845774358191848</v>
+      </c>
+      <c r="N90" t="n">
+        <v>15.6915487163837</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>9293460011.085907</v>
+        <v>12744392327.70699</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1355713145047237</v>
+        <v>0.0933118684218948</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.152071586513058</v>
+        <v>0.05080223940620689</v>
       </c>
       <c r="I91" t="n">
-        <v>15.67934244252677</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7969102055699175</v>
+      </c>
+      <c r="N91" t="n">
+        <v>15.93820411139835</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>6767352069.837358</v>
+        <v>5628771260.630345</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2124974576702585</v>
+        <v>0.176370430424779</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.421312337108434</v>
+        <v>0.2915596720940822</v>
       </c>
       <c r="I92" t="n">
-        <v>17.89596465893388</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.7548912574603948</v>
+      </c>
+      <c r="N92" t="n">
+        <v>15.0978251492079</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>6549651532.48158</v>
+        <v>10204240630.63015</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1923654386422952</v>
+        <v>0.1016517032033126</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.3508504669165886</v>
+        <v>0.07497647457952331</v>
       </c>
       <c r="I93" t="n">
-        <v>15.67934244252677</v>
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7648938843014881</v>
+      </c>
+      <c r="N93" t="n">
+        <v>15.29787768602976</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8723564745.683128</v>
+        <v>4224405547.079763</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1363207696244221</v>
+        <v>0.3174713376955703</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.154694672120391</v>
+        <v>0.7005613615679022</v>
       </c>
       <c r="I94" t="n">
-        <v>14.79921303307101</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8261779903635111</v>
+      </c>
+      <c r="N94" t="n">
+        <v>16.52355980727022</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9179847539.91329</v>
+        <v>13070292579.80759</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1663540013448224</v>
+        <v>0.1010055859070474</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2598106901404947</v>
+        <v>0.07310360876397209</v>
       </c>
       <c r="I95" t="n">
-        <v>9.658822384289332</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8222839126322936</v>
+      </c>
+      <c r="N95" t="n">
+        <v>16.44567825264587</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>10470987130.384</v>
+        <v>12898670113.91609</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1488433736564858</v>
+        <v>0.1173770169039808</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.1985236640633029</v>
+        <v>0.120558604386356</v>
       </c>
       <c r="I96" t="n">
-        <v>9.167002016595049</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8567832831086318</v>
+      </c>
+      <c r="N96" t="n">
+        <v>17.13566566217264</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>10874382288.27861</v>
+        <v>12761717204.99501</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1442854010835379</v>
+        <v>0.1190471607853337</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1825708045251241</v>
+        <v>0.1253997615578458</v>
       </c>
       <c r="I97" t="n">
-        <v>8.141062407052075</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8576716025059858</v>
+      </c>
+      <c r="N97" t="n">
+        <v>17.15343205011972</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>5450415066.539417</v>
+        <v>9174143208.910976</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1960788503174579</v>
+        <v>0.1207744357994959</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3638473715519739</v>
+        <v>0.1304065217030692</v>
       </c>
       <c r="I98" t="n">
-        <v>13.29973329844267</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7801798743284749</v>
+      </c>
+      <c r="N98" t="n">
+        <v>15.6035974865695</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>11202130720.75914</v>
+        <v>14412824153.97423</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1246311889052289</v>
+        <v>0.07578567658433621</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.1137812536456313</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>17.3744064903675</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7768433443652426</v>
+      </c>
+      <c r="N99" t="n">
+        <v>15.53686688730485</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>3851193159.331995</v>
+        <v>5370951959.661452</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3026668623918575</v>
+        <v>0.2448232249842883</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.7369043739500587</v>
+        <v>0.4899801441206234</v>
       </c>
       <c r="I100" t="n">
-        <v>14.50583656325242</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.82130364055057</v>
+      </c>
+      <c r="N100" t="n">
+        <v>16.4260728110114</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>5176741858.335378</v>
+        <v>8604645039.361425</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3283888122145313</v>
+        <v>0.1838671499826811</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.8269309473885675</v>
+        <v>0.3132900140458104</v>
       </c>
       <c r="I101" t="n">
-        <v>6.745533213034654</v>
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.8805972864356358</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.1970149540076206</v>
+      </c>
+      <c r="L101" t="n">
+        <v>4.012259479822297</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8576568233283843</v>
+      </c>
+      <c r="N101" t="n">
+        <v>13.14087698674539</v>
       </c>
     </row>
   </sheetData>
